--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/42/word_level_predictions_42.xlsx
@@ -814,366 +814,366 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G19" s="2" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,59 +4553,59 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G194" t="b">
@@ -10533,57 +10533,57 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="2" t="inlineStr">
         <is>
           <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C195" s="2" t="inlineStr">
         <is>
           <t>it</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="E195" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="F195" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G195" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" t="b">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K195" t="b">
-        <v>1</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="G195" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J195" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -18026,106 +18026,106 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="2" t="n">
+      <c r="A339" t="n">
         <v>30</v>
       </c>
-      <c r="B339" s="2" t="inlineStr">
+      <c r="B339" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C339" s="2" t="inlineStr">
+      <c r="C339" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="D339" s="2" t="n">
+      <c r="D339" t="n">
         <v>0</v>
       </c>
-      <c r="E339" s="2" t="inlineStr">
+      <c r="E339" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F339" s="2" t="inlineStr">
+      <c r="F339" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G339" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H339" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I339" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J339" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K339" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L339" s="2" t="inlineStr">
+      <c r="G339" t="b">
+        <v>1</v>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I339" t="b">
+        <v>1</v>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K339" t="b">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="2" t="n">
+      <c r="A340" t="n">
         <v>30</v>
       </c>
-      <c r="B340" s="2" t="inlineStr">
+      <c r="B340" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C340" s="2" t="inlineStr">
+      <c r="C340" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D340" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E340" s="2" t="inlineStr">
+      <c r="D340" t="n">
+        <v>1</v>
+      </c>
+      <c r="E340" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F340" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G340" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H340" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I340" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J340" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K340" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L340" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G340" t="b">
+        <v>1</v>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I340" t="b">
+        <v>1</v>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K340" t="b">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="F341" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G341" s="2" t="b">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="L341" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/42/word_level_predictions_42.xlsx
@@ -814,366 +814,366 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G19" s="2" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4529,83 +4529,83 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strong Interference Now Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10509,81 +10509,81 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K194" t="b">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>18</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>it</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>7</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G194" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" t="b">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K194" t="b">
-        <v>1</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
-        </is>
-      </c>
-      <c r="C195" s="2" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="D195" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E195" s="2" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F195" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G195" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L195" s="2" t="inlineStr">
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K195" t="b">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -18026,106 +18026,106 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="n">
+      <c r="A339" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B339" t="inlineStr">
+      <c r="B339" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr">
+      <c r="C339" s="2" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="D339" t="n">
+      <c r="D339" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E339" t="inlineStr">
+      <c r="E339" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F339" t="inlineStr">
+      <c r="F339" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G339" t="b">
-        <v>1</v>
-      </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I339" t="b">
-        <v>1</v>
-      </c>
-      <c r="J339" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K339" t="b">
-        <v>1</v>
-      </c>
-      <c r="L339" t="inlineStr">
+      <c r="G339" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H339" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I339" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J339" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K339" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L339" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="n">
+      <c r="A340" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B340" t="inlineStr">
+      <c r="B340" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr">
+      <c r="C340" s="2" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D340" t="n">
-        <v>1</v>
-      </c>
-      <c r="E340" t="inlineStr">
+      <c r="D340" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E340" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G340" t="b">
-        <v>1</v>
-      </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I340" t="b">
-        <v>1</v>
-      </c>
-      <c r="J340" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K340" t="b">
-        <v>1</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F340" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G340" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H340" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I340" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J340" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K340" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L340" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="F341" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G341" s="2" t="b">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="L341" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
